--- a/data/trans_dic/P29A-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P29A-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.5970495451147915</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.5328560158733383</v>
+        <v>0.5328560158733385</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.278959302405297</v>
@@ -697,7 +697,7 @@
         <v>0.4747114683366454</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.4207392876256543</v>
+        <v>0.4207392876256544</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4556978529607298</v>
+        <v>0.4507601143315706</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5058512341487117</v>
+        <v>0.5003258698811421</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.5368027309673683</v>
+        <v>0.5329309264934273</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.4733785351165561</v>
+        <v>0.4760283561850953</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2259143199614957</v>
+        <v>0.2199394427801211</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2814707639378945</v>
+        <v>0.288212809290611</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2956786734121535</v>
+        <v>0.2895261709807039</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2651962691237807</v>
+        <v>0.2707098725947618</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3614650286579579</v>
+        <v>0.358874894838854</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.4102734536600597</v>
+        <v>0.4131393659551467</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.4323665262329999</v>
+        <v>0.4341781844980334</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.3852369821868443</v>
+        <v>0.3818590634103388</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5732146703411583</v>
+        <v>0.5804118469263935</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6222234547842598</v>
+        <v>0.6200003628597973</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6582586956162614</v>
+        <v>0.6505985412251195</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5877131162196955</v>
+        <v>0.5867125493844356</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3387950461336838</v>
+        <v>0.3330845252761549</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4023747499517201</v>
+        <v>0.4004854464095752</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4079661185397017</v>
+        <v>0.407199049751319</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3481673660489348</v>
+        <v>0.3527291646580277</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4416019564057023</v>
+        <v>0.4388713967909939</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.4958423915074466</v>
+        <v>0.5008087118996155</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.5187445637294326</v>
+        <v>0.5208771681222537</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.4596214083600703</v>
+        <v>0.4581880336258154</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3756140484954839</v>
+        <v>0.3811372576559314</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.523038641843378</v>
+        <v>0.5268962638908402</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.469442242528651</v>
+        <v>0.4720889602999342</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.429108714335708</v>
+        <v>0.4335340469480339</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.09216567599194864</v>
+        <v>0.08972618542358225</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2010345995268461</v>
+        <v>0.2015465861988885</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1474362685588378</v>
+        <v>0.1455194610309362</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1933401180461312</v>
+        <v>0.1913763646025273</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2401209099165974</v>
+        <v>0.240177354598185</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.368155851412228</v>
+        <v>0.3708629821571118</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.3124390473878638</v>
+        <v>0.3141911510653438</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.3246052323356996</v>
+        <v>0.3247906773156861</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.46814416321628</v>
+        <v>0.4753938037151592</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6143164097777689</v>
+        <v>0.6213586308586568</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5593053220227782</v>
+        <v>0.565333552224489</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5413491241613039</v>
+        <v>0.5430923071990846</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1499380467137081</v>
+        <v>0.1462836596855165</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2816194722107724</v>
+        <v>0.2795834785243663</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2154524450602144</v>
+        <v>0.213021575317562</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2622645973999659</v>
+        <v>0.2611225792959194</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2946937309407814</v>
+        <v>0.294773977469035</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.433521360200083</v>
+        <v>0.4366775705871099</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3750513188792583</v>
+        <v>0.370823022929778</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3891569249609385</v>
+        <v>0.3890944049183535</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.3470434261613191</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.249415522648033</v>
+        <v>0.2494155226480331</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.416182988066316</v>
@@ -969,7 +969,7 @@
         <v>0.4759963977647113</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.4108857108975802</v>
+        <v>0.4108857108975804</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5314077846924936</v>
+        <v>0.5394903363731876</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5183504542474071</v>
+        <v>0.5128886493564118</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5683587251756987</v>
+        <v>0.561278203526013</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5389367062774346</v>
+        <v>0.5331543399988213</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2048852922562258</v>
+        <v>0.2058975146341761</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2724936939117943</v>
+        <v>0.2782396622091573</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2927353282532497</v>
+        <v>0.2987415305626975</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2129187516756431</v>
+        <v>0.2089879148456271</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3745159566310161</v>
+        <v>0.3745169050534486</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.4044182813421299</v>
+        <v>0.4071122830250614</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.4386510069532777</v>
+        <v>0.4357410840198579</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.3761533090276082</v>
+        <v>0.374283618956904</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6488025860161516</v>
+        <v>0.6485402902734484</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6306870264050511</v>
+        <v>0.628185728873547</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6777170921254815</v>
+        <v>0.6711640269420579</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6439205581559913</v>
+        <v>0.645678732476022</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3005430267406939</v>
+        <v>0.2998701712323882</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.378913664809561</v>
+        <v>0.3817238438083926</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3973873253577977</v>
+        <v>0.4011448756310018</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2921851256091746</v>
+        <v>0.2898924578232007</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4548966184407997</v>
+        <v>0.4518136503229055</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.4843215735810784</v>
+        <v>0.487061884188767</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.5184813618986589</v>
+        <v>0.5132642140137663</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.4448866124626076</v>
+        <v>0.4436376231097247</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.5910398587743592</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.5451927318402247</v>
+        <v>0.5451927318402245</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.3450011575427669</v>
@@ -1093,7 +1093,7 @@
         <v>0.3591177717523396</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.3279124725875898</v>
+        <v>0.3279124725875899</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.4935230839638573</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.598985305964793</v>
+        <v>0.5951131461854516</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4123851937502762</v>
+        <v>0.4138384014504222</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5385070291098715</v>
+        <v>0.5377966983683731</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4765775754967588</v>
+        <v>0.4688216599961724</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.297844579123621</v>
+        <v>0.2948288006261248</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1491277826373837</v>
+        <v>0.1469545863137358</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3099898694794277</v>
+        <v>0.3144585701744182</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2833156396893856</v>
+        <v>0.2832680420282124</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.4570271712566104</v>
+        <v>0.45911235462803</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.289155129322458</v>
+        <v>0.2887972708270573</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.4322964787245819</v>
+        <v>0.4321720569592611</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.385648847612276</v>
+        <v>0.3880619255397412</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6993063364766993</v>
+        <v>0.6960417716956708</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5289501243781989</v>
+        <v>0.5245023956388375</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6421366345131041</v>
+        <v>0.6417198425414156</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6156225168715203</v>
+        <v>0.612357271130343</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4024069000047244</v>
+        <v>0.3949418370489637</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2311387758383702</v>
+        <v>0.2301631274271624</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4127747961763537</v>
+        <v>0.4150822508961786</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3674574333326007</v>
+        <v>0.3729562092052655</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.5280622783512818</v>
+        <v>0.528558327944408</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3585794929956089</v>
+        <v>0.3619717518169872</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.5105895526227979</v>
+        <v>0.5071860112627821</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.4671960902694793</v>
+        <v>0.472877239223322</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.1714378926519204</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.0477281820427899</v>
+        <v>0.04772818204278989</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.3019006482964231</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3572246461211336</v>
+        <v>0.3538633128677099</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5021870107758304</v>
+        <v>0.4987482185524463</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3486697602870938</v>
+        <v>0.34415608534146</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1218973538421381</v>
+        <v>0.127438132776225</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1322648339718018</v>
+        <v>0.1335880472575956</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1636177814464671</v>
+        <v>0.1624727256498809</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1288017649879684</v>
+        <v>0.1267248475997502</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.02800616269937602</v>
+        <v>0.02900447374449767</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2531613627478766</v>
+        <v>0.2548877602118498</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.3467069686692341</v>
+        <v>0.3456365835783243</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2455175912739511</v>
+        <v>0.2509137120269429</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.08149681219974174</v>
+        <v>0.08229583448618684</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4966545562033829</v>
+        <v>0.493375935978169</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6445942606727203</v>
+        <v>0.6451819111980943</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4839560607459494</v>
+        <v>0.4882817334890507</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2118238473843305</v>
+        <v>0.2194661702662291</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2442055670638608</v>
+        <v>0.2433444426009935</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2766462959466585</v>
+        <v>0.2750615591416853</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.222226691867033</v>
+        <v>0.2277255130814713</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.08204228009373382</v>
+        <v>0.08344149165668094</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3492543191256473</v>
+        <v>0.3471539992284739</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.4456699970481781</v>
+        <v>0.4441532448970063</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3336947078920274</v>
+        <v>0.3381684321922636</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1322009762461174</v>
+        <v>0.1331456967898444</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.3751015931207624</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.3722986900141824</v>
+        <v>0.3722986900141822</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.5468994388119914</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.6500469177912176</v>
+        <v>0.652672907563177</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.5938811435411456</v>
+        <v>0.5934776383391908</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.6462693218740836</v>
+        <v>0.6503420356341628</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.5500467030434004</v>
+        <v>0.5478034859221353</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.3273280525670924</v>
+        <v>0.337572740075228</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.243706788514406</v>
+        <v>0.243881096086595</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.3233936835697576</v>
+        <v>0.3174521037576892</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.3293249851525836</v>
+        <v>0.325403387065405</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.5015431737671847</v>
+        <v>0.5064498298494968</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.4271698595890568</v>
+        <v>0.4289765062938543</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.493173154514542</v>
+        <v>0.4972333683408389</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.4551221975826566</v>
+        <v>0.4519635023327939</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.7587041344420513</v>
+        <v>0.7558734473890734</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.7110576780887691</v>
+        <v>0.7129703507938018</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.7621967658341635</v>
+        <v>0.7594390144189257</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.6520967709850968</v>
+        <v>0.6530142131586678</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.4474821815626187</v>
+        <v>0.4577367412359103</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3507015137816844</v>
+        <v>0.3492354251555806</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.435708755911393</v>
+        <v>0.4379500395378833</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.4232730042013074</v>
+        <v>0.4227557535706299</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.5922483750833113</v>
+        <v>0.5903628766887494</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.5158498684966778</v>
+        <v>0.5123529499078385</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.5790057691027285</v>
+        <v>0.5823414394428219</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.5244327478637271</v>
+        <v>0.526154159458478</v>
       </c>
     </row>
     <row r="22">
@@ -1513,7 +1513,7 @@
         <v>0.4664867727432909</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.3962574289272917</v>
+        <v>0.3962574289272918</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.410735785782423</v>
+        <v>0.4088621660995275</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.5287271207003049</v>
+        <v>0.5322525786120795</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.5283248613294056</v>
+        <v>0.5344239357271563</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.4483574233579312</v>
+        <v>0.447981561775495</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1685741589968693</v>
+        <v>0.1662624379338525</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2392171060679002</v>
+        <v>0.2374585323726214</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.3286252474526442</v>
+        <v>0.3240824617459107</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2772455348982518</v>
+        <v>0.278991582580586</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.2940786210483519</v>
+        <v>0.296975921543039</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.386824574039093</v>
+        <v>0.3868787834411826</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.4360410660348416</v>
+        <v>0.439335410949265</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.37251268863085</v>
+        <v>0.3704953913716914</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.4928413315757761</v>
+        <v>0.4946327181114369</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.6080464869487917</v>
+        <v>0.6118735993479449</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6142769657881118</v>
+        <v>0.61331154748938</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.5363300809148267</v>
+        <v>0.5325598499471502</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2309584793214291</v>
+        <v>0.2320889619192715</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3115768855952888</v>
+        <v>0.3103191794342378</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.4029338925903972</v>
+        <v>0.4027846298155263</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.3400089332327562</v>
+        <v>0.3429463550992186</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.3483623826484959</v>
+        <v>0.3486604482066867</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.4431155505294871</v>
+        <v>0.4427473818088816</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.4940030382767979</v>
+        <v>0.4936768553998623</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.4230082903428357</v>
+        <v>0.4230743175191583</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.594483901722899</v>
+        <v>0.5955006031652317</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.5082448091626136</v>
+        <v>0.5122882767826392</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.5262080241754884</v>
+        <v>0.5247342461510034</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.355005425689811</v>
+        <v>0.361357751968326</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.2380635079008408</v>
+        <v>0.2388652473605112</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.197502580184427</v>
+        <v>0.1973170354594898</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.266148846129607</v>
+        <v>0.2682122692701476</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1190937824770705</v>
+        <v>0.1182485790406846</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.4235325832724406</v>
+        <v>0.4204503471688532</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.3565780915849492</v>
+        <v>0.3538443614115475</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.3979907803337453</v>
+        <v>0.399336475091529</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.2430457817331538</v>
+        <v>0.2427907659626023</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.6664113051439835</v>
+        <v>0.6686773323840455</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.5875921083459457</v>
+        <v>0.5843140702270634</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.5954346832432853</v>
+        <v>0.5994169543924749</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.4285010551250709</v>
+        <v>0.4277309593632591</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.3017724044119819</v>
+        <v>0.305862322749462</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.2568142963069569</v>
+        <v>0.2585351990662454</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.3306387484312703</v>
+        <v>0.3335468505533261</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1621073981279435</v>
+        <v>0.1625202033733661</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.4744081194550247</v>
+        <v>0.4741668573744321</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.4091979093420948</v>
+        <v>0.4049446812530349</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.4520128556395325</v>
+        <v>0.4495980076909932</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.2865276331728612</v>
+        <v>0.2856672435522701</v>
       </c>
     </row>
     <row r="28">
@@ -1761,7 +1761,7 @@
         <v>0.5712487024919554</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0.477308954453693</v>
+        <v>0.4773089544536929</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>0.2451746687844678</v>
@@ -1785,7 +1785,7 @@
         <v>0.4353840613056019</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.357223222035976</v>
+        <v>0.3572232220359761</v>
       </c>
     </row>
     <row r="29">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.5316664268579521</v>
+        <v>0.5312491237462529</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.5417908981698415</v>
+        <v>0.5410088729545064</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.5541174959153125</v>
+        <v>0.5521106653349013</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.4591346901349567</v>
+        <v>0.4596197230485993</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.2302887827110085</v>
+        <v>0.2309656674307581</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.241832000728409</v>
+        <v>0.2415850684756998</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.2910457329842283</v>
+        <v>0.2913726335161162</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.2300951768024301</v>
+        <v>0.2301385217580398</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.3838165261303975</v>
+        <v>0.3809318527772326</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.3927125951333919</v>
+        <v>0.3924526499848574</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.422662718392703</v>
+        <v>0.4224402528644248</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.3452016612806921</v>
+        <v>0.3461578198209461</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.5670807539612612</v>
+        <v>0.5668694940074696</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.5797526621171611</v>
+        <v>0.5783740792954402</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.5895592624350849</v>
+        <v>0.588895667768373</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.4946772610502415</v>
+        <v>0.495945228327597</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.2603749789322897</v>
+        <v>0.2606870401159073</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.2716665644391829</v>
+        <v>0.2714474600550966</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.3230707321412163</v>
+        <v>0.3238464347878498</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.2565394608114676</v>
+        <v>0.2557292656032618</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.4077141257472668</v>
+        <v>0.4060521204997483</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.416788199352423</v>
+        <v>0.4163550058203425</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.4467745291122596</v>
+        <v>0.4474043556272251</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.36847657135079</v>
+        <v>0.3688449789425959</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>122511</v>
+        <v>121184</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>148614</v>
+        <v>146990</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>154680</v>
+        <v>153564</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>150934</v>
+        <v>151779</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>58704</v>
+        <v>57151</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>79697</v>
+        <v>81606</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>83109</v>
+        <v>81380</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>83818</v>
+        <v>85561</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>191104</v>
+        <v>189735</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>236701</v>
+        <v>238354</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>246116</v>
+        <v>247147</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>244589</v>
+        <v>242445</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>154105</v>
+        <v>156040</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>182802</v>
+        <v>182149</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>189677</v>
+        <v>187470</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>187389</v>
+        <v>187070</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>88036</v>
+        <v>86552</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>113930</v>
+        <v>113395</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>114671</v>
+        <v>114455</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>110042</v>
+        <v>111484</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>233472</v>
+        <v>232028</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>286068</v>
+        <v>288934</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>295284</v>
+        <v>296498</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>291816</v>
+        <v>290906</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>181794</v>
+        <v>184467</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>250299</v>
+        <v>252145</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>230241</v>
+        <v>231539</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>226736</v>
+        <v>229075</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>45966</v>
+        <v>44749</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>101826</v>
+        <v>102086</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>76127</v>
+        <v>75137</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>105541</v>
+        <v>104469</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>235972</v>
+        <v>236027</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>362656</v>
+        <v>365322</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>314562</v>
+        <v>316326</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>348714</v>
+        <v>348914</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>226578</v>
+        <v>230086</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>293979</v>
+        <v>297349</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>274315</v>
+        <v>277272</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>286043</v>
+        <v>286964</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>74778</v>
+        <v>72956</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>142644</v>
+        <v>141612</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>111247</v>
+        <v>109991</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>143166</v>
+        <v>142542</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>289601</v>
+        <v>289680</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>427045</v>
+        <v>430154</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>377600</v>
+        <v>373343</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>418060</v>
+        <v>417993</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>166892</v>
+        <v>169431</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>157879</v>
+        <v>156216</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>168181</v>
+        <v>166086</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>170300</v>
+        <v>168473</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>68324</v>
+        <v>68661</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>90212</v>
+        <v>92115</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>96717</v>
+        <v>98701</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>75788</v>
+        <v>74389</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>242510</v>
+        <v>242511</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>257066</v>
+        <v>258778</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>274725</v>
+        <v>272903</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>252754</v>
+        <v>251498</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>203761</v>
+        <v>203679</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>192095</v>
+        <v>191333</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>200541</v>
+        <v>198602</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>203474</v>
+        <v>204030</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>100223</v>
+        <v>99998</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>125444</v>
+        <v>126374</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>131292</v>
+        <v>132534</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>104003</v>
+        <v>103187</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>294559</v>
+        <v>292563</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>307856</v>
+        <v>309597</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>324723</v>
+        <v>321455</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>298939</v>
+        <v>298100</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>212487</v>
+        <v>211113</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>147568</v>
+        <v>148088</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>194098</v>
+        <v>193842</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>177833</v>
+        <v>174938</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>110636</v>
+        <v>109516</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>57326</v>
+        <v>56491</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>117295</v>
+        <v>118985</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>119548</v>
+        <v>119528</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>331894</v>
+        <v>333408</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>214626</v>
+        <v>214360</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>319388</v>
+        <v>319296</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>306632</v>
+        <v>308551</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>248075</v>
+        <v>246917</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>189280</v>
+        <v>187688</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>231450</v>
+        <v>231300</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>229716</v>
+        <v>228498</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>149476</v>
+        <v>146704</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>88852</v>
+        <v>88477</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>156187</v>
+        <v>157060</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>155053</v>
+        <v>157373</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>383479</v>
+        <v>383840</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>266156</v>
+        <v>268674</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>377233</v>
+        <v>374718</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>371471</v>
+        <v>375988</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>70763</v>
+        <v>70097</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>106774</v>
+        <v>106043</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>72352</v>
+        <v>71416</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>25070</v>
+        <v>26210</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>27336</v>
+        <v>27610</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>35929</v>
+        <v>35678</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>28154</v>
+        <v>27700</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>6363</v>
+        <v>6590</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>102471</v>
+        <v>103170</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>149850</v>
+        <v>149387</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>104614</v>
+        <v>106914</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>35278</v>
+        <v>35624</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>98382</v>
+        <v>97733</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>137052</v>
+        <v>137177</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>100426</v>
+        <v>101323</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>43565</v>
+        <v>45137</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>50472</v>
+        <v>50294</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>60749</v>
+        <v>60401</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>48576</v>
+        <v>49778</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>18641</v>
+        <v>18959</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>141367</v>
+        <v>140516</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>192623</v>
+        <v>191967</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>142186</v>
+        <v>144093</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>57227</v>
+        <v>57636</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>174731</v>
+        <v>175437</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>156796</v>
+        <v>156689</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>166982</v>
+        <v>168035</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>148254</v>
+        <v>147649</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>90368</v>
+        <v>93196</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>67486</v>
+        <v>67535</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>87690</v>
+        <v>86079</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>86859</v>
+        <v>85825</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>273278</v>
+        <v>275952</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>231071</v>
+        <v>232048</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>261152</v>
+        <v>263302</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>242708</v>
+        <v>241023</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>203937</v>
+        <v>203177</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>187733</v>
+        <v>188238</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>196936</v>
+        <v>196223</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>175759</v>
+        <v>176006</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>123540</v>
+        <v>126371</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>97115</v>
+        <v>96709</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>118145</v>
+        <v>118753</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>111638</v>
+        <v>111502</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>322701</v>
+        <v>321674</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>279041</v>
+        <v>277150</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>306604</v>
+        <v>308370</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>279669</v>
+        <v>280587</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>248474</v>
+        <v>247340</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>334121</v>
+        <v>336349</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>338519</v>
+        <v>342427</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>320641</v>
+        <v>320372</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>106830</v>
+        <v>105365</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>163884</v>
+        <v>162680</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>224695</v>
+        <v>221589</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>212628</v>
+        <v>213967</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>364268</v>
+        <v>367857</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>509455</v>
+        <v>509527</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>577530</v>
+        <v>581893</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>552092</v>
+        <v>549102</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>298143</v>
+        <v>299227</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>384245</v>
+        <v>386664</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>393592</v>
+        <v>392974</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>383554</v>
+        <v>380858</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>146365</v>
+        <v>147081</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>213457</v>
+        <v>212595</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>275503</v>
+        <v>275401</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>260763</v>
+        <v>263016</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>431508</v>
+        <v>431877</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>583592</v>
+        <v>583107</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>654300</v>
+        <v>653868</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>626930</v>
+        <v>627028</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>439403</v>
+        <v>440155</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>371652</v>
+        <v>374609</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>392532</v>
+        <v>391433</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>283320</v>
+        <v>288390</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>185758</v>
+        <v>186384</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>157887</v>
+        <v>157739</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>215152</v>
+        <v>216820</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>98610</v>
+        <v>97910</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>643524</v>
+        <v>638841</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>545802</v>
+        <v>541618</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>618619</v>
+        <v>620710</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>395211</v>
+        <v>394796</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>492567</v>
+        <v>494242</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>429675</v>
+        <v>427278</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>444173</v>
+        <v>447143</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>341975</v>
+        <v>341360</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>235469</v>
+        <v>238661</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>205302</v>
+        <v>206678</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>267285</v>
+        <v>269636</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>134226</v>
+        <v>134567</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>720826</v>
+        <v>720459</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>626345</v>
+        <v>619835</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>702588</v>
+        <v>698834</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>465916</v>
+        <v>464517</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>1718666</v>
+        <v>1717318</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>1774135</v>
+        <v>1771575</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>1821687</v>
+        <v>1815089</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>1618351</v>
+        <v>1620061</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>773835</v>
+        <v>776109</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>843060</v>
+        <v>842200</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>1015186</v>
+        <v>1016326</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>857278</v>
+        <v>857440</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>2530457</v>
+        <v>2511439</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>2655018</v>
+        <v>2653261</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>2863798</v>
+        <v>2862290</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>2502898</v>
+        <v>2509831</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1833147</v>
+        <v>1832464</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1898444</v>
+        <v>1893930</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1938203</v>
+        <v>1936022</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1743631</v>
+        <v>1748100</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>874933</v>
+        <v>875981</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>947068</v>
+        <v>946304</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1126891</v>
+        <v>1129597</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>955803</v>
+        <v>952784</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>2688011</v>
+        <v>2677054</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>2817787</v>
+        <v>2814858</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>3027170</v>
+        <v>3031437</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>2671654</v>
+        <v>2674325</v>
       </c>
     </row>
     <row r="40">
